--- a/Outputs/Treatment at T1 (weight_a) v. Control at T2 (weight_a)/Tables - Nominal Variables - Treatment at T1 (weight_a) v. Control at T2 (weight_a).xlsx
+++ b/Outputs/Treatment at T1 (weight_a) v. Control at T2 (weight_a)/Tables - Nominal Variables - Treatment at T1 (weight_a) v. Control at T2 (weight_a).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,22 +459,22 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gender (P = 0.006)</t>
+          <t>Age (P = 0.000)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>18-29</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(47.4%) 2376</t>
+          <t>(19.3%) 966</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(48.8%) 394</t>
+          <t>(24.8%) 200</t>
         </is>
       </c>
     </row>
@@ -483,17 +483,17 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Non-binary</t>
+          <t>30-49</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(1.0%) 49</t>
+          <t>(34.8%) 1744</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(2.1%) 16</t>
+          <t>(35.5%) 287</t>
         </is>
       </c>
     </row>
@@ -502,17 +502,17 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>50-65</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(0.6%) 27</t>
+          <t>(27.5%) 1379</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(0.6%) 5</t>
+          <t>(25.7%) 207</t>
         </is>
       </c>
     </row>
@@ -521,17 +521,17 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Skipped</t>
+          <t>Over 65</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(0.2%) 10</t>
+          <t>(18.5%) 925</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(0.6%) 5</t>
+          <t>(14.1%) 113</t>
         </is>
       </c>
     </row>
@@ -540,59 +540,59 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>DK/NA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(50.9%) 2552</t>
+          <t>(0.0%) 0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(47.8%) 386</t>
+          <t>(0.0%) 0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Religious Prayer (P = 0.046) Warning: P-value may be incorrect because at least one expected value is less than 5.</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DK/NA</t>
+          <t>A few times a month</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(0.0%) 0</t>
+          <t>(6.7%) 333</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(0.0%) 0</t>
+          <t>(8.2%) 66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Interested in News (P = 0.000)</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Don't know</t>
+          <t>A few times a week</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>(5.0%) 252</t>
+          <t>(12.5%) 626</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(7.3%) 59</t>
+          <t>(13.3%) 107</t>
         </is>
       </c>
     </row>
@@ -601,17 +601,17 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hardly at all</t>
+          <t>Don't know</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(8.7%) 436</t>
+          <t>(4.2%) 209</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(9.5%) 76</t>
+          <t>(4.7%) 37</t>
         </is>
       </c>
     </row>
@@ -620,17 +620,17 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Most of the time</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(42.9%) 2152</t>
+          <t>(24.2%) 1215</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(34.8%) 281</t>
+          <t>(21.9%) 177</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Only now and then</t>
+          <t>Once a day</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(17.8%) 892</t>
+          <t>(13.0%) 654</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(13.9%) 112</t>
+          <t>(13.8%) 111</t>
         </is>
       </c>
     </row>
@@ -658,17 +658,17 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Some of the time</t>
+          <t>Once a week</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>(25.6%) 1282</t>
+          <t>(3.6%) 178</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(34.5%) 279</t>
+          <t>(2.3%) 18</t>
         </is>
       </c>
     </row>
@@ -677,15 +677,3710 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
+          <t>Seldom</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>(14.9%) 748</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>(13.5%) 108</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Several times a day</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>(20.9%) 1046</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>(22.0%) 177</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>skipped</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>(0.0%) 1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>(0.3%) 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>DK/NA</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>(0.0%) 0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Religious Importance (P = 0.049)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Not at all important</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>(27.1%) 1361</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>(24.4%) 197</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Not too important</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>(17.2%) 865</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>(15.0%) 121</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Somewhat important</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>(25.1%) 1261</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>(26.3%) 212</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Very important</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>(30.5%) 1528</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>(34.4%) 277</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Born Again (P = 0.666)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>(73.8%) 3702</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>(73.0%) 590</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>(26.2%) 1313</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>(27.0%) 218</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Religious Attendance (P = 0.000)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A few times a year</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>(11.2%) 561</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>(9.0%) 72</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Don't know</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>(3.6%) 179</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>(5.2%) 42</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>More than once a week</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>(7.6%) 381</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>(9.6%) 77</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>(36.9%) 1851</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>(30.4%) 245</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Once a week</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>(14.8%) 740</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>(16.8%) 136</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Once or twice a month</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>(6.0%) 302</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>(8.6%) 69</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Seldom</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>(19.9%) 998</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>(20.4%) 165</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Religion (P = 0.005) Warning: P-value may be incorrect because at least one expected value is less than 5.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Agnostic</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>(6.3%) 314</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>(5.0%) 40</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Atheist</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>(7.5%) 374</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>(7.4%) 60</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Buddhist</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>(2.0%) 100</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>(1.2%) 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Eastern or Greek Orthodox</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>(1.0%) 52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>(1.0%) 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Hindu</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>(0.4%) 20</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>(0.6%) 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Jewish</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>(2.7%) 136</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>(3.0%) 23</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Mormon</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>(1.2%) 62</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>(1.3%) 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Muslim</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>(1.5%) 74</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>(3.6%) 29</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Nothing in particular</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>(26.1%) 1310</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>(24.2%) 195</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Protestant</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>(19.5%) 980</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>(19.2%) 155</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Roman Catholic</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>(24.6%) 1232</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>(27.4%) 221</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Something else</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>(7.1%) 357</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>(6.2%) 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Political Ideology (P = 0.017)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Conservative</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>(13.3%) 666</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>(12.7%) 102</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Liberal</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>(21.4%) 1072</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>(20.1%) 162</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>(34.3%) 1718</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>(33.5%) 271</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>(10.2%) 512</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>(11.8%) 95</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Very conservative</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>(7.3%) 367</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>(10.5%) 84</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr"/>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Very liberal</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>(13.5%) 678</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>(11.4%) 92</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr"/>
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Registered to Vote (P = 0.001)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Don't know</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>(2.0%) 98</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>(3.4%) 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr"/>
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>(10.5%) 525</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>(13.2%) 106</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr"/>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>(87.6%) 4392</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>(83.3%) 674</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr"/>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Presidential Vote in 2020 (P = 0.000)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Did not vote for President</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>(21.7%) 1090</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>(28.7%) 231</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr"/>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Donald Trump</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>(22.8%) 1146</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>(21.0%) 170</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Howie Hawkins</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>(1.3%) 63</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>(2.1%) 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Jo Jorgensen</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>(2.0%) 97</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>(1.1%) 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Joe Biden</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>(50.1%) 2512</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>(46.1%) 373</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr"/>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>(2.1%) 105</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>(1.0%) 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr"/>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Presidential Vote in 2016 (P = 0.024) Warning: P-value may be incorrect because at least one expected value is less than 5.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Did not vote for President</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>(35.5%) 1779</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>(39.4%) 318</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr"/>
+      <c r="B65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Donald Trump</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>(20.6%) 1031</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>(17.9%) 144</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr"/>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Evan Mcmullin</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>(0.2%) 9</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>(0.6%) 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Gary Johnson</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>(3.4%) 171</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>(3.4%) 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr"/>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Hillary Clinton</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>(35.5%) 1783</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>(34.5%) 278</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Jill Stein</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>(2.2%) 109</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>(2.6%) 21</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr"/>
+      <c r="B70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>(2.6%) 128</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>(1.4%) 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr"/>
+      <c r="B71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>skipped</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>(0.1%) 3</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>(0.2%) 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr"/>
+      <c r="B72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Political Party Preference (P = 0.000)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Independent</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>(3.0%) 152</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>(12.2%) 98</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Lean Democrat</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>(2.7%) 136</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>(5.4%) 43</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr"/>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Lean Republican</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>(0.7%) 35</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>(4.3%) 35</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>(81.5%) 4085</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>(39.2%) 316</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>(0.2%) 11</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>(0.9%) 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr"/>
+      <c r="B78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Not very strong democrat</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>(2.9%) 143</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>(7.9%) 63</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Not very strong republican</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>(1.5%) 73</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>(4.6%) 37</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Strong Democrat</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>(5.8%) 292</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>(18.9%) 152</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Strong Republican</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>(1.7%) 84</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>(6.6%) 53</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr"/>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Political Party Affiliation (P = 0.000)</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Other</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>(1.0%) 49</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>(2.1%) 17</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Democrat</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>(8.7%) 436</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>(26.7%) 216</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Independent</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>(5.3%) 265</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>(17.7%) 142</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>(81.5%) 4085</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>(39.2%) 316</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Not sure</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>(0.4%) 20</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>(3.1%) 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Republican</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>(3.2%) 158</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>(11.2%) 90</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Has Children (P = 1.000)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>(71.7%) 3596</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>(71.7%) 579</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>(28.3%) 1419</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>(28.3%) 229</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Household Income (P = 0.004)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>10,000 - 19,000</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>(8.1%) 407</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>(8.3%) 67</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>100,000 - 119,999</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>(5.9%) 295</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>(7.7%) 62</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr"/>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>120,000 - 149,999</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>(7.3%) 364</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>(6.0%) 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr"/>
+      <c r="B96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>150,000 - 199,999</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>(5.7%) 284</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>(5.6%) 45</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr"/>
+      <c r="B97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>20,000 - 29,999</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>(9.0%) 453</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>(6.2%) 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr"/>
+      <c r="B98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>200,000 - 249,999</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>(2.3%) 117</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>(2.6%) 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr"/>
+      <c r="B99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>250,000 - 349,999</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>(1.9%) 94</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>(2.3%) 18</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr"/>
+      <c r="B100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>30,000 - 39,999</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>(6.2%) 313</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>(5.8%) 47</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr"/>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>350,000 - 499,999</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>(1.0%) 49</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>(0.7%) 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr"/>
+      <c r="B102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>40,000 - 49,999</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>(6.0%) 300</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>(7.8%) 62</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr"/>
+      <c r="B103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>50,000 - 59,999</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>(7.4%) 372</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>(5.3%) 42</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr"/>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>500,000 or more</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>(0.6%) 29</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>(1.3%) 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr"/>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>60,000 - 69,999</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>(4.9%) 244</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>(6.8%) 55</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr"/>
+      <c r="B106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>70,000 - 79,999</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>(6.7%) 333</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>(5.3%) 42</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr"/>
+      <c r="B107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>80,000 - 99,999</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>(8.0%) 401</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>(8.2%) 66</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr"/>
+      <c r="B108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Less than 10,000</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>(7.4%) 370</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>(8.0%) 64</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr"/>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Prefer not to say</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>(11.6%) 583</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>(12.1%) 97</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr"/>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Employment (P = 0.000)</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>(38.6%) 1935</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>(36.4%) 294</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr"/>
+      <c r="B112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Homemaker</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>(6.5%) 328</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>(9.5%) 76</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr"/>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>(2.4%) 122</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>(1.7%) 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr"/>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Part-time</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>(13.0%) 651</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>(17.5%) 141</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr"/>
+      <c r="B115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Permanently disabled</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>(5.1%) 256</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>(5.3%) 42</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr"/>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Retired</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>(18.6%) 931</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>(14.7%) 119</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr"/>
+      <c r="B117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>(4.9%) 248</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>(6.0%) 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr"/>
+      <c r="B118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Temporarily laid off</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>(1.7%) 82</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>(2.5%) 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr"/>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Unemployed</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>(9.1%) 458</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>(6.5%) 52</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr"/>
+      <c r="B120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr"/>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Marital Status (P = 0.692)</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Divorced</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>(10.6%) 531</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>(9.4%) 76</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr"/>
+      <c r="B122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Domestic / civil partnership</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>(5.5%) 278</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>(4.7%) 38</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr"/>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>(43.6%) 2185</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>(42.8%) 346</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr"/>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Never married</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>(33.6%) 1687</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>(35.8%) 289</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr"/>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Seperated</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>(2.4%) 118</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>(2.5%) 20</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr"/>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Widowed</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>(4.3%) 214</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>(4.6%) 37</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr"/>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr"/>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Education (P = 0.005)</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2-year</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>(10.3%) 515</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>(10.4%) 84</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr"/>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>4-year</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>(21.3%) 1070</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>(18.0%) 145</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr"/>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>High school grad</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>(29.0%) 1457</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>(33.1%) 267</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr"/>
+      <c r="B131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>No HS</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>(6.7%) 334</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>(6.2%) 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr"/>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Post-grad</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>(12.2%) 610</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>(9.0%) 72</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr"/>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Some college</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>(20.5%) 1026</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>(23.3%) 188</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr"/>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr"/>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Race (P = 0.003)</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>(9.0%) 453</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>(5.9%) 47</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr"/>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>(5.7%) 285</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>(6.3%) 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr"/>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>(34.3%) 1721</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>(39.8%) 321</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr"/>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Middle Eastern</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>(0.6%) 28</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>(0.9%) 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr"/>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Native American</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>(1.5%) 75</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>(1.9%) 15</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr"/>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>(3.6%) 178</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>(3.4%) 27</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr"/>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Two or more races</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>(4.7%) 235</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>(5.9%) 47</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr"/>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>(40.6%) 2038</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>(36.1%) 292</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr"/>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr"/>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Gender (P = 0.006)</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>(47.4%) 2376</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>(48.8%) 394</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr"/>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Non-binary</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>(1.0%) 49</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>(2.1%) 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr"/>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>(0.6%) 27</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>(0.6%) 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr"/>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>(50.9%) 2552</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>(47.8%) 386</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr"/>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>skipped</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>(0.2%) 10</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>(0.6%) 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr"/>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Request to Contact (P = 0.000) Warning: P-value may be incorrect because at least one expected value is less than 5.</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>(0.8%) 37</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr"/>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>(81.5%) 4085</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>(39.2%) 316</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr"/>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>(11.9%) 596</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr"/>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>not asked</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>(5.9%) 296</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>(60.8%) 492</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr"/>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr"/>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Permission to Contact (P = 0.000) Warning: P-value may be incorrect because at least one expected value is less than 5.</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>(1.2%) 62</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr"/>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>(81.5%) 4085</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>(39.2%) 316</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr"/>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>(11.4%) 571</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr"/>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>not asked</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>(5.9%) 296</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>(60.8%) 492</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr"/>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr"/>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Consume Social Media News (T2) (P = 0.000) Warning: P-value may be incorrect because at least one expected value is less than 5.</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Hardly ever</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>(3.5%) 174</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>(9.3%) 74</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr"/>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>(3.2%) 162</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>(9.2%) 74</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr"/>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>(81.5%) 4085</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>(39.2%) 316</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr"/>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Often</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>(6.4%) 321</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>(18.7%) 151</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr"/>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>(5.4%) 270</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>(23.7%) 191</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr"/>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>skipped</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr"/>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr"/>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Consume Social Media News (T1) (P = 0.499) Warning: P-value may be incorrect because at least one expected value is less than 5.</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Hardly ever</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>(17.5%) 877</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>(16.3%) 132</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr"/>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>(16.2%) 810</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>(15.7%) 126</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr"/>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Often</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>(30.3%) 1518</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>(32.1%) 259</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr"/>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>(35.8%) 1796</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>(35.9%) 290</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr"/>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>skipped</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>(0.2%) 11</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr"/>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr"/>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Consume Television News (T2) (P = 0.000)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Hardly ever</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>(3.9%) 197</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>(12.0%) 97</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr"/>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>(2.5%) 123</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>(7.1%) 57</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr"/>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>(81.5%) 4085</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>(39.2%) 316</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr"/>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Often</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>(7.2%) 359</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>(22.1%) 178</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr"/>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>(5.0%) 249</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>(19.6%) 158</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr"/>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr"/>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Consume Television News (T1) (P = 0.003) Warning: P-value may be incorrect because at least one expected value is less than 5.</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Hardly ever</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>(21.8%) 1094</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>(17.7%) 143</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr"/>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>(14.0%) 700</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>(11.2%) 90</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr"/>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Often</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>(34.3%) 1718</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>(36.7%) 297</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr"/>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>(29.9%) 1499</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>(34.4%) 278</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr"/>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>skipped</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>(0.1%) 2</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr"/>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr"/>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Consume Print News (T2) (P = 0.000)</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Hardly ever</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>(2.2%) 110</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>(8.1%) 65</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr"/>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>(1.9%) 97</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>(11.0%) 88</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr"/>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>(81.5%) 4085</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>(39.2%) 316</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr"/>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Often</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>(9.0%) 451</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>(24.2%) 196</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr"/>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>(5.4%) 270</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>(17.5%) 141</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr"/>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr"/>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Consume Print News (T1) (P = 0.025) Warning: P-value may be incorrect because at least one expected value is less than 5.</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Hardly ever</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>(14.3%) 718</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>(14.4%) 116</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr"/>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Never</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>(17.2%) 861</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>(13.5%) 109</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr"/>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Often</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>(37.2%) 1864</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>(36.2%) 293</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr"/>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Sometimes</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>(31.3%) 1567</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>(35.9%) 290</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr"/>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>skipped</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>(0.1%) 4</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr"/>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr"/>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Interested in News (P = 0.000)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Don't know</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>(5.0%) 252</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>(7.3%) 59</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr"/>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Hardly at all</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>(8.7%) 436</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>(9.5%) 76</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr"/>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Most of the time</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>(42.9%) 2152</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>(34.8%) 281</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr"/>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Only now and then</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>(17.8%) 892</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>(13.9%) 112</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr"/>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Some of the time</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>(25.6%) 1282</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>(34.5%) 279</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr"/>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>DK/NA</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>(0.0%) 0</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
         <is>
           <t>(0.0%) 0</t>
         </is>
